--- a/test.xlsx
+++ b/test.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
@@ -967,6 +967,43 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
@@ -1004,6 +1004,154 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A2:XFD6"/>
@@ -1152,6 +1152,894 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Аббасова</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>учитель</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="inlineStr">
+        <is>
+          <t>25.05.2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
